--- a/cypress/downloads/order-invoice_pranav.xlsx
+++ b/cypress/downloads/order-invoice_pranav.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6530fef67244490f95d1c494</v>
+        <v>653415c87244490f95d3c86a</v>
       </c>
       <c r="B2" t="str">
         <v>adidas original</v>
